--- a/Pola Jawaban.xlsx
+++ b/Pola Jawaban.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -564,7 +564,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AE12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
@@ -1055,8 +1055,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Pola Jawaban.xlsx
+++ b/Pola Jawaban.xlsx
@@ -1056,10 +1056,16 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="AC7" sqref="AC7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
@@ -1123,12 +1129,16 @@
       <c r="W1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="4"/>
+      <c r="X1" s="4">
+        <v>18</v>
+      </c>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+      <c r="A2" s="4">
+        <v>19</v>
+      </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1165,12 +1175,16 @@
       </c>
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
+      <c r="X2" s="4">
+        <v>25</v>
+      </c>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="4">
+        <v>26</v>
+      </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1217,7 +1231,9 @@
       <c r="W3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="4"/>
+      <c r="X3" s="4">
+        <v>37</v>
+      </c>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
@@ -1234,7 +1250,9 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4">
+        <v>42</v>
+      </c>
       <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1276,7 +1294,9 @@
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="C5" s="4">
+        <v>50</v>
+      </c>
       <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1317,14 +1337,18 @@
       <c r="W5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="X5" s="4"/>
+      <c r="X5" s="4">
+        <v>59</v>
+      </c>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4">
+        <v>60</v>
+      </c>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
@@ -1363,7 +1387,9 @@
       <c r="W6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="X6" s="4"/>
+      <c r="X6" s="4">
+        <v>68</v>
+      </c>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
@@ -1371,7 +1397,9 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4">
+        <v>69</v>
+      </c>
       <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1419,7 +1447,9 @@
       <c r="W7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="X7" s="4"/>
+      <c r="X7" s="4">
+        <v>82</v>
+      </c>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
@@ -1427,7 +1457,9 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4">
+        <v>83</v>
+      </c>
       <c r="E8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1457,7 +1489,9 @@
       <c r="U8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="V8" s="4"/>
+      <c r="V8" s="4">
+        <v>88</v>
+      </c>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="1"/>
@@ -1467,7 +1501,9 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4">
+        <v>89</v>
+      </c>
       <c r="E9" s="4" t="s">
         <v>3</v>
       </c>
@@ -1503,7 +1539,9 @@
       <c r="U9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="4"/>
+      <c r="V9" s="4">
+        <v>97</v>
+      </c>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="1"/>
@@ -1513,7 +1551,9 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4">
+        <v>98</v>
+      </c>
       <c r="E10" s="4" t="s">
         <v>6</v>
       </c>

--- a/Pola Jawaban.xlsx
+++ b/Pola Jawaban.xlsx
@@ -1056,14 +1056,14 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1581,7 +1581,9 @@
       <c r="U10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="V10" s="4"/>
+      <c r="V10" s="4">
+        <v>102</v>
+      </c>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="1"/>

--- a/Pola Jawaban.xlsx
+++ b/Pola Jawaban.xlsx
@@ -1056,7 +1056,7 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1515,10 +1515,10 @@
         <v>1</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
